--- a/biology/Médecine/Acrosyndrome/Acrosyndrome.xlsx
+++ b/biology/Médecine/Acrosyndrome/Acrosyndrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un acrosyndrome est un trouble lié à une réaction des vaisseaux des doigts et/ou des orteils. Il regroupe plusieurs pathologies, permanentes ou paroxystiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un acrosyndrome est un trouble lié à une réaction des vaisseaux des doigts et/ou des orteils. Il regroupe plusieurs pathologies, permanentes ou paroxystiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce terme regroupe différentes pathologies regroupées en deux catégories[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce terme regroupe différentes pathologies regroupées en deux catégories :
 Acrosyndromes vasomoteurs : phénomène de Raynaud, érythermalgie (ou érythromélalgie), acrocyanose essentielle.
 Acrosyndromes trophiques : engelures (à ne pas confondre avec les gelures), ischémie digitale.</t>
         </is>
@@ -543,13 +557,15 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les causes peuvent être :
-génétiques (dont hypersensibilité au froid[2])
-médicamenteuse, par exemple induites par la bléomycine en traitement de la maladie de Kaposi associée au VIH[3]
-professionnelles, par exemple chez les travailleurs utilisent des engins et outils vibrants[4]
-parfois associée à l'anorexie dite "nerveuse"[5]</t>
+génétiques (dont hypersensibilité au froid)
+médicamenteuse, par exemple induites par la bléomycine en traitement de la maladie de Kaposi associée au VIH
+professionnelles, par exemple chez les travailleurs utilisent des engins et outils vibrants
+parfois associée à l'anorexie dite "nerveuse"</t>
         </is>
       </c>
     </row>
@@ -577,12 +593,14 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le diagnostic peut notamment s'appuyer sur :
-la capillaroscopie [6] péri-unguéale
-l’écho-doppler[7]
-un test thermique couplé à une étude de l'hémodynamique cutanée par Doppler au laser[8]</t>
+la capillaroscopie  péri-unguéale
+l’écho-doppler
+un test thermique couplé à une étude de l'hémodynamique cutanée par Doppler au laser</t>
         </is>
       </c>
     </row>
@@ -610,7 +628,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement dépend de l'acrosyndrome et de sa cause.
 </t>
